--- a/results_it/corr_significance_収穫日.xlsx
+++ b/results_it/corr_significance_収穫日.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rin00/myprojects/onion/results_it/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767C8739-0AE6-0B47-BBD1-DD2A1165BCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DCD4A2-C853-FA4C-9CAA-728DF3970986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -603,6 +603,8 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
